--- a/data_analysis/week/7.xlsx
+++ b/data_analysis/week/7.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27880" windowHeight="13000"/>
+    <workbookView windowWidth="24940" windowHeight="13000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <t>大区</t>
   </si>
   <si>
-    <t>管理中心</t>
+    <t>去敏</t>
   </si>
   <si>
     <t>项目编码</t>
@@ -76,7 +76,7 @@
     <t>A</t>
   </si>
   <si>
-    <t>A01东莞东部管理中心</t>
+    <t>A01东莞东部去敏</t>
   </si>
   <si>
     <t>50900904</t>
@@ -91,7 +91,7 @@
     <t>50834610</t>
   </si>
   <si>
-    <t>东莞常平万科城</t>
+    <t>东莞常平去敏城</t>
   </si>
   <si>
     <t>50834619</t>
@@ -121,13 +121,13 @@
     <t>50900668</t>
   </si>
   <si>
-    <t>东莞万科金域缇香花园</t>
+    <t>东莞去敏金域缇香花园</t>
   </si>
   <si>
     <t>50904014</t>
   </si>
   <si>
-    <t>东莞万科松朗花园</t>
+    <t>东莞去敏松朗花园</t>
   </si>
   <si>
     <t>50834617</t>
@@ -157,7 +157,7 @@
     <t>50834621</t>
   </si>
   <si>
-    <t>东莞万科湖畔花园</t>
+    <t>东莞去敏湖畔花园</t>
   </si>
   <si>
     <t>50900926</t>
@@ -208,7 +208,7 @@
     <t>东莞金色城市花园</t>
   </si>
   <si>
-    <t>A02阵地经营体</t>
+    <t>A02去敏</t>
   </si>
   <si>
     <t>50834633</t>
@@ -244,7 +244,7 @@
     <t>50834630</t>
   </si>
   <si>
-    <t>东莞虎门万科城</t>
+    <t>东莞虎门去敏城</t>
   </si>
   <si>
     <t>50834625</t>
@@ -328,7 +328,7 @@
     <t>50834639</t>
   </si>
   <si>
-    <t>东莞万科云广场</t>
+    <t>东莞去敏云广场</t>
   </si>
   <si>
     <t>50834634</t>
@@ -364,10 +364,10 @@
     <t>50834631</t>
   </si>
   <si>
-    <t>东莞虎门万科花园</t>
-  </si>
-  <si>
-    <t>A03阵地经营体</t>
+    <t>东莞虎门去敏花园</t>
+  </si>
+  <si>
+    <t>A03去敏</t>
   </si>
   <si>
     <t>50834653</t>
@@ -460,7 +460,7 @@
     <t>深圳天誉</t>
   </si>
   <si>
-    <t>A04深圳西部管理中心</t>
+    <t>A04深圳西部去敏</t>
   </si>
   <si>
     <t>50834647</t>
@@ -472,7 +472,7 @@
     <t>50908379</t>
   </si>
   <si>
-    <t>深圳万科蛇口公馆</t>
+    <t>深圳去敏蛇口公馆</t>
   </si>
   <si>
     <t>50900314</t>
@@ -496,7 +496,7 @@
     <t>50834657</t>
   </si>
   <si>
-    <t>深圳万科云城</t>
+    <t>深圳去敏云城</t>
   </si>
   <si>
     <t>50901094</t>
@@ -553,7 +553,7 @@
     <t>Q深圳浪琴屿花园</t>
   </si>
   <si>
-    <t>A05阵地经营体</t>
+    <t>A05去敏</t>
   </si>
   <si>
     <t>50907826</t>
@@ -676,7 +676,7 @@
     <t>深圳城市花园</t>
   </si>
   <si>
-    <t>A06深圳东部管理中心</t>
+    <t>A06深圳东部去敏</t>
   </si>
   <si>
     <t>50834705</t>
@@ -742,7 +742,7 @@
     <t>50834672</t>
   </si>
   <si>
-    <t>万科红物业服务中心</t>
+    <t>去敏红物业服务中心</t>
   </si>
   <si>
     <t>50834701</t>
@@ -835,7 +835,7 @@
     <t>深圳天景花园</t>
   </si>
   <si>
-    <t>A07厦门城区管理中心</t>
+    <t>A07厦门城区去敏</t>
   </si>
   <si>
     <t>50834720</t>
@@ -871,7 +871,7 @@
     <t>50834725</t>
   </si>
   <si>
-    <t>厦门海沧万科城</t>
+    <t>厦门海沧去敏城</t>
   </si>
   <si>
     <t>50901105</t>
@@ -901,7 +901,7 @@
     <t>50834730</t>
   </si>
   <si>
-    <t>厦门万科广场</t>
+    <t>厦门去敏广场</t>
   </si>
   <si>
     <t>50834728</t>
@@ -934,13 +934,13 @@
     <t>K厦门育秀中心</t>
   </si>
   <si>
-    <t>A08阵地经营体</t>
+    <t>A08去敏</t>
   </si>
   <si>
     <t>50834742</t>
   </si>
   <si>
-    <t>福州万科城</t>
+    <t>福州去敏城</t>
   </si>
   <si>
     <t>50834735</t>
@@ -970,7 +970,7 @@
     <t>50905498</t>
   </si>
   <si>
-    <t>福州万科金融港中心</t>
+    <t>福州去敏金融港中心</t>
   </si>
   <si>
     <t>50906177</t>
@@ -1018,7 +1018,7 @@
     <t>50834743</t>
   </si>
   <si>
-    <t>福州万科广场</t>
+    <t>福州去敏广场</t>
   </si>
   <si>
     <t>50901860</t>
@@ -1030,7 +1030,7 @@
     <t>50834744</t>
   </si>
   <si>
-    <t>莆田万科城</t>
+    <t>莆田去敏城</t>
   </si>
   <si>
     <t>50834736</t>
@@ -1069,7 +1069,7 @@
     <t>Q长乐外滩公馆</t>
   </si>
   <si>
-    <t>A09泉州城区管理中心</t>
+    <t>A09泉州城区去敏</t>
   </si>
   <si>
     <t>50834747</t>
@@ -1213,7 +1213,7 @@
     <t>50834769</t>
   </si>
   <si>
-    <t>泉州万科城</t>
+    <t>泉州去敏城</t>
   </si>
   <si>
     <t>50904578</t>
@@ -1234,7 +1234,7 @@
     <t>泉州城市之光</t>
   </si>
   <si>
-    <t>A10厦漳管理中心</t>
+    <t>A10厦漳去敏</t>
   </si>
   <si>
     <t>50900835</t>
@@ -1342,10 +1342,10 @@
     <t>50834731</t>
   </si>
   <si>
-    <t>漳州万科城</t>
-  </si>
-  <si>
-    <t>A11阵地经营体</t>
+    <t>漳州去敏城</t>
+  </si>
+  <si>
+    <t>A11去敏</t>
   </si>
   <si>
     <t>50834664</t>
@@ -1357,7 +1357,7 @@
     <t>50834669</t>
   </si>
   <si>
-    <t>深圳万科城</t>
+    <t>深圳去敏城</t>
   </si>
   <si>
     <t>50834667</t>
@@ -1381,13 +1381,13 @@
     <t>50834671</t>
   </si>
   <si>
-    <t>深圳万科紫悦山</t>
+    <t>深圳去敏紫悦山</t>
   </si>
   <si>
     <t>50834670</t>
   </si>
   <si>
-    <t>深圳万科麓城</t>
+    <t>深圳去敏麓城</t>
   </si>
   <si>
     <t>50903990</t>
@@ -1429,7 +1429,7 @@
     <t>B</t>
   </si>
   <si>
-    <t>B01杭州城南管理中心</t>
+    <t>B01杭州城南去敏</t>
   </si>
   <si>
     <t>50834790</t>
@@ -1495,7 +1495,7 @@
     <t>50904695</t>
   </si>
   <si>
-    <t>杭州万科公望五期</t>
+    <t>杭州去敏公望五期</t>
   </si>
   <si>
     <t>50834789</t>
@@ -1519,7 +1519,7 @@
     <t>50834798</t>
   </si>
   <si>
-    <t>杭州万科公望一二三期</t>
+    <t>杭州去敏公望一二三期</t>
   </si>
   <si>
     <t>50907817</t>
@@ -1543,7 +1543,7 @@
     <t>50834797</t>
   </si>
   <si>
-    <t>杭州万科公望四期</t>
+    <t>杭州去敏公望四期</t>
   </si>
   <si>
     <t>50834784</t>
@@ -1564,7 +1564,7 @@
     <t>杭州锦浦江岸公寓</t>
   </si>
   <si>
-    <t>B02阵地经营体</t>
+    <t>B02去敏</t>
   </si>
   <si>
     <t>50834815</t>
@@ -1747,13 +1747,13 @@
     <t>温州金溪园</t>
   </si>
   <si>
-    <t>B03阵地经营体</t>
+    <t>B03去敏</t>
   </si>
   <si>
     <t>50834836</t>
   </si>
   <si>
-    <t>南昌万科城</t>
+    <t>南昌去敏城</t>
   </si>
   <si>
     <t>50834833</t>
@@ -1765,7 +1765,7 @@
     <t>50834829</t>
   </si>
   <si>
-    <t>南昌地铁万科时代广场</t>
+    <t>南昌地铁去敏时代广场</t>
   </si>
   <si>
     <t>50834834</t>
@@ -1843,7 +1843,7 @@
     <t>50834838</t>
   </si>
   <si>
-    <t>南昌万科金域小区</t>
+    <t>南昌去敏金域小区</t>
   </si>
   <si>
     <t>50907844</t>
@@ -1879,10 +1879,10 @@
     <t>50834837</t>
   </si>
   <si>
-    <t>南昌万科粹叠园</t>
-  </si>
-  <si>
-    <t>B04杭州城西管理中心</t>
+    <t>南昌去敏粹叠园</t>
+  </si>
+  <si>
+    <t>B04杭州城西去敏</t>
   </si>
   <si>
     <t>50834844</t>
@@ -2041,7 +2041,7 @@
     <t>杭州栖岚院二期</t>
   </si>
   <si>
-    <t>B05杭州城东管理中心</t>
+    <t>B05杭州城东去敏</t>
   </si>
   <si>
     <t>50834873</t>
@@ -2107,7 +2107,7 @@
     <t>50834884</t>
   </si>
   <si>
-    <t>杭州万科草庄</t>
+    <t>杭州去敏草庄</t>
   </si>
   <si>
     <t>50834885</t>
@@ -2188,7 +2188,7 @@
     <t>K绍兴赞成·美林</t>
   </si>
   <si>
-    <t>B06宁波西南管理中心</t>
+    <t>B06宁波西南去敏</t>
   </si>
   <si>
     <t>50834974</t>
@@ -2212,7 +2212,7 @@
     <t>50834946</t>
   </si>
   <si>
-    <t>宁波万科传奇里</t>
+    <t>宁波去敏传奇里</t>
   </si>
   <si>
     <t>50834961</t>
@@ -2308,7 +2308,7 @@
     <t>50906332</t>
   </si>
   <si>
-    <t>宁波万科桂语里</t>
+    <t>宁波去敏桂语里</t>
   </si>
   <si>
     <t>50834968</t>
@@ -2344,7 +2344,7 @@
     <t>50905543</t>
   </si>
   <si>
-    <t>宁波万科广源里</t>
+    <t>宁波去敏广源里</t>
   </si>
   <si>
     <t>50834989</t>
@@ -2395,7 +2395,7 @@
     <t>Z宁波泗门嘉悦城</t>
   </si>
   <si>
-    <t>B07阵地经营体</t>
+    <t>B07去敏</t>
   </si>
   <si>
     <t>50834928</t>
@@ -2644,7 +2644,7 @@
     <t>Z宁波都市森林</t>
   </si>
   <si>
-    <t>B08宁波东北管理中心</t>
+    <t>B08宁波东北去敏</t>
   </si>
   <si>
     <t>50834920</t>
@@ -2728,7 +2728,7 @@
     <t>50900899</t>
   </si>
   <si>
-    <t>宁波万科都心里</t>
+    <t>宁波去敏都心里</t>
   </si>
   <si>
     <t>50906808</t>
@@ -2740,13 +2740,13 @@
     <t>50901106</t>
   </si>
   <si>
-    <t>万科城堂院</t>
+    <t>去敏城堂院</t>
   </si>
   <si>
     <t>50834925</t>
   </si>
   <si>
-    <t>宁波万科城</t>
+    <t>宁波去敏城</t>
   </si>
   <si>
     <t>50906775</t>
@@ -2758,13 +2758,13 @@
     <t>50834926</t>
   </si>
   <si>
-    <t>宁波万科城东郡</t>
+    <t>宁波去敏城东郡</t>
   </si>
   <si>
     <t>50834972</t>
   </si>
   <si>
-    <t>宁波万科惇叙里</t>
+    <t>宁波去敏惇叙里</t>
   </si>
   <si>
     <t>50834927</t>
@@ -2776,7 +2776,7 @@
     <t>C</t>
   </si>
   <si>
-    <t>C01阵地经营体</t>
+    <t>C01去敏</t>
   </si>
   <si>
     <t>50835011</t>
@@ -2788,7 +2788,7 @@
     <t>50901628</t>
   </si>
   <si>
-    <t>沈阳万科城市之光清水房</t>
+    <t>沈阳去敏城市之光清水房</t>
   </si>
   <si>
     <t>50906774</t>
@@ -2929,7 +2929,7 @@
     <t>R沈阳伯爵源筑</t>
   </si>
   <si>
-    <t>C02阵地经营体</t>
+    <t>C02去敏</t>
   </si>
   <si>
     <t>50835031</t>
@@ -2941,7 +2941,7 @@
     <t>50906019</t>
   </si>
   <si>
-    <t>沈阳万科兰峰苑</t>
+    <t>沈阳去敏兰峰苑</t>
   </si>
   <si>
     <t>50835032</t>
@@ -3046,7 +3046,7 @@
     <t>沈阳金域国际</t>
   </si>
   <si>
-    <t>C03阵地经营体</t>
+    <t>C03去敏</t>
   </si>
   <si>
     <t>50835048</t>
@@ -3070,7 +3070,7 @@
     <t>50907154</t>
   </si>
   <si>
-    <t>沈阳万科明日之光</t>
+    <t>沈阳去敏明日之光</t>
   </si>
   <si>
     <t>50835043</t>
@@ -3112,7 +3112,7 @@
     <t>50906735</t>
   </si>
   <si>
-    <t>万科仲山花园</t>
+    <t>去敏仲山花园</t>
   </si>
   <si>
     <t>50835052</t>
@@ -3130,7 +3130,7 @@
     <t>50835050</t>
   </si>
   <si>
-    <t>沈阳万科城</t>
+    <t>沈阳去敏城</t>
   </si>
   <si>
     <t>50835047</t>
@@ -3145,7 +3145,7 @@
     <t>沈阳郁金香</t>
   </si>
   <si>
-    <t>C04沈鞍管理中心</t>
+    <t>C04沈鞍去敏</t>
   </si>
   <si>
     <t>50834999</t>
@@ -3169,7 +3169,7 @@
     <t>50906032</t>
   </si>
   <si>
-    <t>沈阳万科四季苑</t>
+    <t>沈阳去敏四季苑</t>
   </si>
   <si>
     <t>50835026</t>
@@ -3181,7 +3181,7 @@
     <t>50904329</t>
   </si>
   <si>
-    <t>沈阳万科西盛花园</t>
+    <t>沈阳去敏西盛花园</t>
   </si>
   <si>
     <t>50835002</t>
@@ -3229,7 +3229,7 @@
     <t>50904071</t>
   </si>
   <si>
-    <t>鞍山万科金域华府</t>
+    <t>鞍山去敏金域华府</t>
   </si>
   <si>
     <t>50902161</t>
@@ -3241,7 +3241,7 @@
     <t>50835059</t>
   </si>
   <si>
-    <t>鞍山万科城</t>
+    <t>鞍山去敏城</t>
   </si>
   <si>
     <t>50905912</t>
@@ -3271,10 +3271,10 @@
     <t>50907120</t>
   </si>
   <si>
-    <t>Q沈阳信达万科城</t>
-  </si>
-  <si>
-    <t>C05阵地经营体</t>
+    <t>Q沈阳信达去敏城</t>
+  </si>
+  <si>
+    <t>C05去敏</t>
   </si>
   <si>
     <t>50835075</t>
@@ -3298,19 +3298,19 @@
     <t>50835079</t>
   </si>
   <si>
-    <t>大连万科城市之光</t>
+    <t>大连去敏城市之光</t>
   </si>
   <si>
     <t>50906210</t>
   </si>
   <si>
-    <t>大连万科翡翠公园</t>
+    <t>大连去敏翡翠公园</t>
   </si>
   <si>
     <t>50900849</t>
   </si>
   <si>
-    <t>大连万科半山半海</t>
+    <t>大连去敏半山半海</t>
   </si>
   <si>
     <t>50835074</t>
@@ -3340,7 +3340,7 @@
     <t>50835080</t>
   </si>
   <si>
-    <t>大连万科公园里二期</t>
+    <t>大连去敏公园里二期</t>
   </si>
   <si>
     <t>50835064</t>
@@ -3358,7 +3358,7 @@
     <t>50835078</t>
   </si>
   <si>
-    <t>大连万科城</t>
+    <t>大连去敏城</t>
   </si>
   <si>
     <t>50836807</t>
@@ -3382,7 +3382,7 @@
     <t>50906489</t>
   </si>
   <si>
-    <t>大连万科新都会</t>
+    <t>大连去敏新都会</t>
   </si>
   <si>
     <t>50835072</t>
@@ -3406,13 +3406,13 @@
     <t>50906052</t>
   </si>
   <si>
-    <t>Q大连万科尚品中南</t>
+    <t>Q大连去敏尚品中南</t>
   </si>
   <si>
     <t>50904070</t>
   </si>
   <si>
-    <t>大连万科中南府</t>
+    <t>大连去敏中南府</t>
   </si>
   <si>
     <t>50835073</t>
@@ -3430,7 +3430,7 @@
     <t>50909923</t>
   </si>
   <si>
-    <t>Q大连万科城市印象</t>
+    <t>Q大连去敏城市印象</t>
   </si>
   <si>
     <t>50835083</t>
@@ -3442,7 +3442,7 @@
     <t>50906971</t>
   </si>
   <si>
-    <t>大连万科八栋墅</t>
+    <t>大连去敏八栋墅</t>
   </si>
   <si>
     <t>50835062</t>
@@ -3454,10 +3454,10 @@
     <t>50904892</t>
   </si>
   <si>
-    <t>Q大连万科百年港湾</t>
-  </si>
-  <si>
-    <t>C06阵地经营体</t>
+    <t>Q大连去敏百年港湾</t>
+  </si>
+  <si>
+    <t>C06去敏</t>
   </si>
   <si>
     <t>50835093</t>
@@ -3499,7 +3499,7 @@
     <t>50909334</t>
   </si>
   <si>
-    <t>长春万科繁荣里</t>
+    <t>长春去敏繁荣里</t>
   </si>
   <si>
     <t>50900670</t>
@@ -3511,7 +3511,7 @@
     <t>50906298</t>
   </si>
   <si>
-    <t>长春万科城市之光</t>
+    <t>长春去敏城市之光</t>
   </si>
   <si>
     <t>50836777</t>
@@ -3568,13 +3568,13 @@
     <t>Q长春吉森漫桦林</t>
   </si>
   <si>
-    <t>C07长春东南管理中心</t>
+    <t>C07长春东南去敏</t>
   </si>
   <si>
     <t>50835100</t>
   </si>
   <si>
-    <t>吉林万科城一期</t>
+    <t>吉林去敏城一期</t>
   </si>
   <si>
     <t>50900395</t>
@@ -3592,37 +3592,37 @@
     <t>50835106</t>
   </si>
   <si>
-    <t>长春万科城</t>
+    <t>长春去敏城</t>
   </si>
   <si>
     <t>50836779</t>
   </si>
   <si>
-    <t>吉林万科上东区</t>
+    <t>吉林去敏上东区</t>
   </si>
   <si>
     <t>50909345</t>
   </si>
   <si>
-    <t>哈尔滨万科招商城市之光</t>
+    <t>哈尔滨去敏招商城市之光</t>
   </si>
   <si>
     <t>50904279</t>
   </si>
   <si>
-    <t>长春万科惠斯勒小镇班芙花园</t>
+    <t>长春去敏惠斯勒小镇班芙花园</t>
   </si>
   <si>
     <t>50901050</t>
   </si>
   <si>
-    <t>长春万科如园</t>
+    <t>长春去敏如园</t>
   </si>
   <si>
     <t>50835099</t>
   </si>
   <si>
-    <t>吉林万科城二期</t>
+    <t>吉林去敏城二期</t>
   </si>
   <si>
     <t>50835105</t>
@@ -3688,7 +3688,7 @@
     <t>D</t>
   </si>
   <si>
-    <t>D01阵地经营体</t>
+    <t>D01去敏</t>
   </si>
   <si>
     <t>50835125</t>
@@ -3814,7 +3814,7 @@
     <t>50835138</t>
   </si>
   <si>
-    <t>北京万科城</t>
+    <t>北京去敏城</t>
   </si>
   <si>
     <t>50835130</t>
@@ -3907,7 +3907,7 @@
     <t>Q北京西山华府</t>
   </si>
   <si>
-    <t>D02北京东部管理中心</t>
+    <t>D02北京东部去敏</t>
   </si>
   <si>
     <t>50835146</t>
@@ -3919,7 +3919,7 @@
     <t>50835160</t>
   </si>
   <si>
-    <t>北京万科红</t>
+    <t>北京去敏红</t>
   </si>
   <si>
     <t>50835153</t>
@@ -4018,7 +4018,7 @@
     <t>CSW北京爱这城A-Ztown</t>
   </si>
   <si>
-    <t>D03北京西南管理中心</t>
+    <t>D03北京西南去敏</t>
   </si>
   <si>
     <t>50835169</t>
@@ -4165,7 +4165,7 @@
     <t>北京九晟商业广场</t>
   </si>
   <si>
-    <t>D04阵地经营体</t>
+    <t>D04去敏</t>
   </si>
   <si>
     <t>50903606</t>
@@ -4273,7 +4273,7 @@
     <t>50909144</t>
   </si>
   <si>
-    <t>唐山万科金域缇香</t>
+    <t>唐山去敏金域缇香</t>
   </si>
   <si>
     <t>50900523</t>
@@ -4327,7 +4327,7 @@
     <t>50835191</t>
   </si>
   <si>
-    <t>秦皇岛天洋万科戴河丽</t>
+    <t>秦皇岛天洋去敏戴河丽</t>
   </si>
   <si>
     <t>50835202</t>
@@ -4351,7 +4351,7 @@
     <t>50835189</t>
   </si>
   <si>
-    <t>廊坊香河五矿万科城</t>
+    <t>廊坊香河五矿去敏城</t>
   </si>
   <si>
     <t>50904272</t>
@@ -4378,7 +4378,7 @@
     <t>Q天津桐景园</t>
   </si>
   <si>
-    <t>D05天津城区管理中心</t>
+    <t>D05天津城区去敏</t>
   </si>
   <si>
     <t>50908671</t>
@@ -4561,7 +4561,7 @@
     <t>天津蔚秀花园</t>
   </si>
   <si>
-    <t>D06阵地经营体</t>
+    <t>D06去敏</t>
   </si>
   <si>
     <t>50900326</t>
@@ -4591,7 +4591,7 @@
     <t>50835253</t>
   </si>
   <si>
-    <t>青岛万科城</t>
+    <t>青岛去敏城</t>
   </si>
   <si>
     <t>50835236</t>
@@ -4633,7 +4633,7 @@
     <t>50835254</t>
   </si>
   <si>
-    <t>青岛万科桃花源</t>
+    <t>青岛去敏桃花源</t>
   </si>
   <si>
     <t>50835258</t>
@@ -4651,13 +4651,13 @@
     <t>50835255</t>
   </si>
   <si>
-    <t>青岛万科紫台</t>
+    <t>青岛去敏紫台</t>
   </si>
   <si>
     <t>50903589</t>
   </si>
   <si>
-    <t>青岛万科未来城</t>
+    <t>青岛去敏未来城</t>
   </si>
   <si>
     <t>50900317</t>
@@ -4705,7 +4705,7 @@
     <t>50904000</t>
   </si>
   <si>
-    <t>青岛万科金域华府</t>
+    <t>青岛去敏金域华府</t>
   </si>
   <si>
     <t>50835240</t>
@@ -4750,7 +4750,7 @@
     <t>Q青岛圣乔维斯</t>
   </si>
   <si>
-    <t>D07阵地经营体</t>
+    <t>D07去敏</t>
   </si>
   <si>
     <t>50835262</t>
@@ -4816,7 +4816,7 @@
     <t>50835291</t>
   </si>
   <si>
-    <t>烟台万科城</t>
+    <t>烟台去敏城</t>
   </si>
   <si>
     <t>50903372</t>
@@ -4828,7 +4828,7 @@
     <t>50901092</t>
   </si>
   <si>
-    <t>青岛万科朗润园</t>
+    <t>青岛去敏朗润园</t>
   </si>
   <si>
     <t>50835276</t>
@@ -4882,13 +4882,13 @@
     <t>50903741</t>
   </si>
   <si>
-    <t>烟台万科翡翠公园</t>
+    <t>烟台去敏翡翠公园</t>
   </si>
   <si>
     <t>50907183</t>
   </si>
   <si>
-    <t>青岛万科生态新城如园</t>
+    <t>青岛去敏生态新城如园</t>
   </si>
   <si>
     <t>50836865</t>
@@ -4936,7 +4936,7 @@
     <t>50835284</t>
   </si>
   <si>
-    <t>青岛平度万科城</t>
+    <t>青岛平度去敏城</t>
   </si>
   <si>
     <t>50835260</t>
@@ -4948,13 +4948,13 @@
     <t>50907184</t>
   </si>
   <si>
-    <t>烟台万科城市之光</t>
+    <t>烟台去敏城市之光</t>
   </si>
   <si>
     <t>50835285</t>
   </si>
   <si>
-    <t>青岛平度万科城观荷</t>
+    <t>青岛平度去敏城观荷</t>
   </si>
   <si>
     <t>50835261</t>
@@ -4975,7 +4975,7 @@
     <t>烟台假日风景</t>
   </si>
   <si>
-    <t>D08济南城区管理中心</t>
+    <t>D08济南城区去敏</t>
   </si>
   <si>
     <t>50836788</t>
@@ -5017,19 +5017,19 @@
     <t>50835297</t>
   </si>
   <si>
-    <t>济南万科公园里家园</t>
+    <t>济南去敏公园里家园</t>
   </si>
   <si>
     <t>50835298</t>
   </si>
   <si>
-    <t>济南万科金域国际天泰</t>
+    <t>济南去敏金域国际天泰</t>
   </si>
   <si>
     <t>50904696</t>
   </si>
   <si>
-    <t>济南万科麓城</t>
+    <t>济南去敏麓城</t>
   </si>
   <si>
     <t>50904736</t>
@@ -5041,7 +5041,7 @@
     <t>50907137</t>
   </si>
   <si>
-    <t>济南万科悦峯花园</t>
+    <t>济南去敏悦峯花园</t>
   </si>
   <si>
     <t>50836792</t>
@@ -5053,25 +5053,25 @@
     <t>50907122</t>
   </si>
   <si>
-    <t>济南万科龙湖紫郡</t>
+    <t>济南去敏龙湖紫郡</t>
   </si>
   <si>
     <t>50907123</t>
   </si>
   <si>
-    <t>济南万科龙湖城市之光小区</t>
+    <t>济南去敏龙湖城市之光小区</t>
   </si>
   <si>
     <t>50835301</t>
   </si>
   <si>
-    <t>济南万科幸福里小区</t>
+    <t>济南去敏幸福里小区</t>
   </si>
   <si>
     <t>50907136</t>
   </si>
   <si>
-    <t>济南万科海晏门小区</t>
+    <t>济南去敏海晏门小区</t>
   </si>
   <si>
     <t>50836789</t>
@@ -5083,22 +5083,22 @@
     <t>50835300</t>
   </si>
   <si>
-    <t>济南万科新里程花园</t>
+    <t>济南去敏新里程花园</t>
   </si>
   <si>
     <t>50835299</t>
   </si>
   <si>
-    <t>济南万科天泰金域国际</t>
+    <t>济南去敏天泰金域国际</t>
   </si>
   <si>
     <t>50835296</t>
   </si>
   <si>
-    <t>济南万科城</t>
-  </si>
-  <si>
-    <t>D09太原管理中心</t>
+    <t>济南去敏城</t>
+  </si>
+  <si>
+    <t>D09太原去敏</t>
   </si>
   <si>
     <t>50903489</t>
@@ -5110,13 +5110,13 @@
     <t>50904253</t>
   </si>
   <si>
-    <t>太原万科金域蓝湾</t>
+    <t>太原去敏金域蓝湾</t>
   </si>
   <si>
     <t>50835195</t>
   </si>
   <si>
-    <t>太原万科城</t>
+    <t>太原去敏城</t>
   </si>
   <si>
     <t>50835192</t>
@@ -5146,7 +5146,7 @@
     <t>50900655</t>
   </si>
   <si>
-    <t>太原四建万科蓝山</t>
+    <t>太原四建去敏蓝山</t>
   </si>
   <si>
     <t>50835188</t>
@@ -5158,7 +5158,7 @@
     <t>E</t>
   </si>
   <si>
-    <t>E01阵地经营体</t>
+    <t>E01去敏</t>
   </si>
   <si>
     <t>50835317</t>
@@ -5341,7 +5341,7 @@
     <t>金域平江花园</t>
   </si>
   <si>
-    <t>E02阵地经营体</t>
+    <t>E02去敏</t>
   </si>
   <si>
     <t>50835339</t>
@@ -5428,7 +5428,7 @@
     <t>Q无锡太湖威尼斯花园</t>
   </si>
   <si>
-    <t>E03阵地经营体</t>
+    <t>E03去敏</t>
   </si>
   <si>
     <t>50835361</t>
@@ -5512,7 +5512,7 @@
     <t>50835366</t>
   </si>
   <si>
-    <t>徐州万科城</t>
+    <t>徐州去敏城</t>
   </si>
   <si>
     <t>50836831</t>
@@ -5599,7 +5599,7 @@
     <t>Q南京天正滨江花园</t>
   </si>
   <si>
-    <t>E04阵地经营体</t>
+    <t>E04去敏</t>
   </si>
   <si>
     <t>50835368</t>
@@ -5635,7 +5635,7 @@
     <t>50835385</t>
   </si>
   <si>
-    <t>扬州万科城</t>
+    <t>扬州去敏城</t>
   </si>
   <si>
     <t>50835371</t>
@@ -5785,7 +5785,7 @@
     <t>50835386</t>
   </si>
   <si>
-    <t>扬州万科金色梦想花园</t>
+    <t>扬州去敏金色梦想花园</t>
   </si>
   <si>
     <t>50909908</t>
@@ -5800,7 +5800,7 @@
     <t>南京璞悦山花园</t>
   </si>
   <si>
-    <t>E05阵地经营体</t>
+    <t>E05去敏</t>
   </si>
   <si>
     <t>50905531</t>
@@ -5836,7 +5836,7 @@
     <t>50835404</t>
   </si>
   <si>
-    <t>芜湖万科城</t>
+    <t>芜湖去敏城</t>
   </si>
   <si>
     <t>50835392</t>
@@ -5848,7 +5848,7 @@
     <t>50835402</t>
   </si>
   <si>
-    <t>合肥万科城市公馆</t>
+    <t>合肥去敏城市公馆</t>
   </si>
   <si>
     <t>50835390</t>
@@ -5878,7 +5878,7 @@
     <t>50835401</t>
   </si>
   <si>
-    <t>合肥万科城</t>
+    <t>合肥去敏城</t>
   </si>
   <si>
     <t>50835403</t>
@@ -5929,7 +5929,7 @@
     <t>Q合肥国际丽晶城</t>
   </si>
   <si>
-    <t>E06苏州城东管理中心</t>
+    <t>E06苏州城东去敏</t>
   </si>
   <si>
     <t>50835421</t>
@@ -6022,7 +6022,7 @@
     <t>Q苏州天域花园</t>
   </si>
   <si>
-    <t>E07无锡城东管理中心</t>
+    <t>E07无锡城东去敏</t>
   </si>
   <si>
     <t>50835437</t>
@@ -6040,7 +6040,7 @@
     <t>50835453</t>
   </si>
   <si>
-    <t>无锡万科家园</t>
+    <t>无锡去敏家园</t>
   </si>
   <si>
     <t>50900707</t>
@@ -6115,7 +6115,7 @@
     <t>常州柏悦湾花园</t>
   </si>
   <si>
-    <t>E08上海高端管理中心</t>
+    <t>E08上海高端去敏</t>
   </si>
   <si>
     <t>50909145</t>
@@ -6157,7 +6157,7 @@
     <t>50835468</t>
   </si>
   <si>
-    <t>上海万科广场</t>
+    <t>上海去敏广场</t>
   </si>
   <si>
     <t>50835456</t>
@@ -6226,7 +6226,7 @@
     <t>上海红郡</t>
   </si>
   <si>
-    <t>E09上海西南管理中心</t>
+    <t>E09上海西南去敏</t>
   </si>
   <si>
     <t>50835489</t>
@@ -6280,7 +6280,7 @@
     <t>50835487</t>
   </si>
   <si>
-    <t>上海万科海尚华庭</t>
+    <t>上海去敏海尚华庭</t>
   </si>
   <si>
     <t>50835490</t>
@@ -6298,7 +6298,7 @@
     <t>50835476</t>
   </si>
   <si>
-    <t>上海春申万科城</t>
+    <t>上海春申去敏城</t>
   </si>
   <si>
     <t>50835479</t>
@@ -6367,7 +6367,7 @@
     <t>上海马桥景城品雅苑</t>
   </si>
   <si>
-    <t>E10上海东北管理中心</t>
+    <t>E10上海东北去敏</t>
   </si>
   <si>
     <t>50835492</t>
@@ -6562,7 +6562,7 @@
     <t>K上海中邦城市园（A地</t>
   </si>
   <si>
-    <t>E11上海西北管理中心</t>
+    <t>E11上海西北去敏</t>
   </si>
   <si>
     <t>50835520</t>
@@ -6682,7 +6682,7 @@
     <t>50905465</t>
   </si>
   <si>
-    <t>上海万科天空融苑</t>
+    <t>上海去敏天空融苑</t>
   </si>
   <si>
     <t>50904517</t>
@@ -6706,7 +6706,7 @@
     <t>50835534</t>
   </si>
   <si>
-    <t>上海虹桥万科润园</t>
+    <t>上海虹桥去敏润园</t>
   </si>
   <si>
     <t>50905464</t>
@@ -6721,7 +6721,7 @@
     <t>Q上海石川春晓</t>
   </si>
   <si>
-    <t>E12阵地经营体</t>
+    <t>E12去敏</t>
   </si>
   <si>
     <t>50835358</t>
@@ -6808,7 +6808,7 @@
     <t>Q南京苏源颐和东园</t>
   </si>
   <si>
-    <t>E13阵地经营体</t>
+    <t>E13去敏</t>
   </si>
   <si>
     <t>50835419</t>
@@ -6904,7 +6904,7 @@
     <t>F</t>
   </si>
   <si>
-    <t>F01阵地经营体</t>
+    <t>F01去敏</t>
   </si>
   <si>
     <t>50802432</t>
@@ -6991,7 +6991,7 @@
     <t>广州金域蓝湾</t>
   </si>
   <si>
-    <t>F02阵地经营体</t>
+    <t>F02去敏</t>
   </si>
   <si>
     <t>50802449</t>
@@ -7102,7 +7102,7 @@
     <t>Q广州珊瑚湾畔</t>
   </si>
   <si>
-    <t>F03广州东清管理中心</t>
+    <t>F03广州东清去敏</t>
   </si>
   <si>
     <t>50802456</t>
@@ -7126,13 +7126,13 @@
     <t>50802458</t>
   </si>
   <si>
-    <t>广州万科城花园</t>
+    <t>广州去敏城花园</t>
   </si>
   <si>
     <t>50802461</t>
   </si>
   <si>
-    <t>清远万科城</t>
+    <t>清远去敏城</t>
   </si>
   <si>
     <t>50802460</t>
@@ -7180,7 +7180,7 @@
     <t>50802459</t>
   </si>
   <si>
-    <t>广州万科城新里程</t>
+    <t>广州去敏城新里程</t>
   </si>
   <si>
     <t>50901346</t>
@@ -7222,10 +7222,10 @@
     <t>50802462</t>
   </si>
   <si>
-    <t>清远万科华府</t>
-  </si>
-  <si>
-    <t>F04阵地经营体</t>
+    <t>清远去敏华府</t>
+  </si>
+  <si>
+    <t>F04去敏</t>
   </si>
   <si>
     <t>50835553</t>
@@ -7237,7 +7237,7 @@
     <t>50835567</t>
   </si>
   <si>
-    <t>佛山万科金色诚悦花园</t>
+    <t>佛山去敏金色诚悦花园</t>
   </si>
   <si>
     <t>50906582</t>
@@ -7249,7 +7249,7 @@
     <t>50906556</t>
   </si>
   <si>
-    <t>万科万域华庭</t>
+    <t>去敏万域华庭</t>
   </si>
   <si>
     <t>50835542</t>
@@ -7327,13 +7327,13 @@
     <t>50907146</t>
   </si>
   <si>
-    <t>佛山万科金色雅苑</t>
+    <t>佛山去敏金色雅苑</t>
   </si>
   <si>
     <t>50836733</t>
   </si>
   <si>
-    <t>佛山万科金域缇香花园</t>
+    <t>佛山去敏金域缇香花园</t>
   </si>
   <si>
     <t>50904347</t>
@@ -7345,7 +7345,7 @@
     <t>50835556</t>
   </si>
   <si>
-    <t>佛山万科广场</t>
+    <t>佛山去敏广场</t>
   </si>
   <si>
     <t>50835550</t>
@@ -7366,7 +7366,7 @@
     <t>佛山金域城东花园</t>
   </si>
   <si>
-    <t>F05佛山顺德管理中心</t>
+    <t>F05佛山顺德去敏</t>
   </si>
   <si>
     <t>50835568</t>
@@ -7420,7 +7420,7 @@
     <t>50907157</t>
   </si>
   <si>
-    <t>佛山万科美的西江悦花园</t>
+    <t>佛山去敏美的西江悦花园</t>
   </si>
   <si>
     <t>50835564</t>
@@ -7432,7 +7432,7 @@
     <t>50835555</t>
   </si>
   <si>
-    <t>佛山万科城</t>
+    <t>佛山去敏城</t>
   </si>
   <si>
     <t>50835558</t>
@@ -7447,7 +7447,7 @@
     <t>佛山缤纷西园</t>
   </si>
   <si>
-    <t>F06阵地经营体</t>
+    <t>F06去敏</t>
   </si>
   <si>
     <t>50835582</t>
@@ -7615,7 +7615,7 @@
     <t>50909005</t>
   </si>
   <si>
-    <t>珠海万科城市中心回迁区</t>
+    <t>珠海去敏城市中心回迁区</t>
   </si>
   <si>
     <t>50835587</t>
@@ -7657,10 +7657,10 @@
     <t>50835592</t>
   </si>
   <si>
-    <t>珠海万科城市中心</t>
-  </si>
-  <si>
-    <t>F07长沙橘洲管理中心</t>
+    <t>珠海去敏城市中心</t>
+  </si>
+  <si>
+    <t>F07长沙橘洲去敏</t>
   </si>
   <si>
     <t>50835597</t>
@@ -7753,7 +7753,7 @@
     <t>Q长沙湘水熙园</t>
   </si>
   <si>
-    <t>F08南宁城区管理中心</t>
+    <t>F08南宁城区去敏</t>
   </si>
   <si>
     <t>50835615</t>
@@ -7807,7 +7807,7 @@
     <t>50835619</t>
   </si>
   <si>
-    <t>南宁万科城</t>
+    <t>南宁去敏城</t>
   </si>
   <si>
     <t>50904587</t>
@@ -7825,10 +7825,10 @@
     <t>50907953</t>
   </si>
   <si>
-    <t>南宁万科公园里</t>
-  </si>
-  <si>
-    <t>F09长沙麓山管理中心</t>
+    <t>南宁去敏公园里</t>
+  </si>
+  <si>
+    <t>F09长沙麓山去敏</t>
   </si>
   <si>
     <t>50835596</t>
@@ -7846,7 +7846,7 @@
     <t>50900321</t>
   </si>
   <si>
-    <t>长沙万科城-BG</t>
+    <t>长沙去敏城-BG</t>
   </si>
   <si>
     <t>50835606</t>
@@ -7900,13 +7900,13 @@
     <t>50835609</t>
   </si>
   <si>
-    <t>长沙万科城</t>
+    <t>长沙去敏城</t>
   </si>
   <si>
     <t>G</t>
   </si>
   <si>
-    <t>G01武汉汉口管理中心</t>
+    <t>G01武汉汉口去敏</t>
   </si>
   <si>
     <t>50835629</t>
@@ -7999,7 +7999,7 @@
     <t>Q武汉金湖天地</t>
   </si>
   <si>
-    <t>G02阵地经营体</t>
+    <t>G02去敏</t>
   </si>
   <si>
     <t>50835652</t>
@@ -8092,7 +8092,7 @@
     <t>Q武汉光谷汇景</t>
   </si>
   <si>
-    <t>G03武汉汉阳管理中心</t>
+    <t>G03武汉汉阳去敏</t>
   </si>
   <si>
     <t>50835669</t>
@@ -8131,7 +8131,7 @@
     <t>Q武汉市汇博苑小区</t>
   </si>
   <si>
-    <t>G04阵地经营体</t>
+    <t>G04去敏</t>
   </si>
   <si>
     <t>50835679</t>
@@ -8149,7 +8149,7 @@
     <t>50835686</t>
   </si>
   <si>
-    <t>西安万科金域东郡</t>
+    <t>西安去敏金域东郡</t>
   </si>
   <si>
     <t>50835673</t>
@@ -8167,13 +8167,13 @@
     <t>50835685</t>
   </si>
   <si>
-    <t>西安万科金色悦郡</t>
+    <t>西安去敏金色悦郡</t>
   </si>
   <si>
     <t>50835682</t>
   </si>
   <si>
-    <t>西安万科城</t>
+    <t>西安去敏城</t>
   </si>
   <si>
     <t>50900917</t>
@@ -8185,7 +8185,7 @@
     <t>50901358</t>
   </si>
   <si>
-    <t>中铁建万科翡翠国际</t>
+    <t>中铁建去敏翡翠国际</t>
   </si>
   <si>
     <t>50907286</t>
@@ -8197,7 +8197,7 @@
     <t>50906604</t>
   </si>
   <si>
-    <t>西安万科城润园</t>
+    <t>西安去敏城润园</t>
   </si>
   <si>
     <t>50835687</t>
@@ -8215,7 +8215,7 @@
     <t>50904259</t>
   </si>
   <si>
-    <t>西安万科翡翠天誉</t>
+    <t>西安去敏翡翠天誉</t>
   </si>
   <si>
     <t>50835677</t>
@@ -8227,7 +8227,7 @@
     <t>50835683</t>
   </si>
   <si>
-    <t>西安万科城8#地</t>
+    <t>西安去敏城8#地</t>
   </si>
   <si>
     <t>50835680</t>
@@ -8239,7 +8239,7 @@
     <t>50835684</t>
   </si>
   <si>
-    <t>西安万科东方传奇</t>
+    <t>西安去敏东方传奇</t>
   </si>
   <si>
     <t>50835681</t>
@@ -8248,13 +8248,13 @@
     <t>西安金域曲江</t>
   </si>
   <si>
-    <t>G05郑州城区管理中心</t>
+    <t>G05郑州城区去敏</t>
   </si>
   <si>
     <t>50835711</t>
   </si>
   <si>
-    <t>郑州万科城锦枫苑</t>
+    <t>郑州去敏城锦枫苑</t>
   </si>
   <si>
     <t>50835696</t>
@@ -8314,13 +8314,13 @@
     <t>50907204</t>
   </si>
   <si>
-    <t>郑州万科·美景魅力之城东麓</t>
+    <t>郑州去敏·美景魅力之城东麓</t>
   </si>
   <si>
     <t>50901568</t>
   </si>
   <si>
-    <t>郑州万科城嘉兰苑物业服务中心</t>
+    <t>郑州去敏城嘉兰苑物业服务中心</t>
   </si>
   <si>
     <t>50835713</t>
@@ -8338,7 +8338,7 @@
     <t>50905937</t>
   </si>
   <si>
-    <t>郑州万科城琅寓物业服务中心</t>
+    <t>郑州去敏城琅寓物业服务中心</t>
   </si>
   <si>
     <t>50835706</t>
@@ -8350,25 +8350,25 @@
     <t>50835709</t>
   </si>
   <si>
-    <t>郑州万科美景魅力之城</t>
+    <t>郑州去敏美景魅力之城</t>
   </si>
   <si>
     <t>50905582</t>
   </si>
   <si>
-    <t>郑州万科荣成兰园</t>
+    <t>郑州去敏荣成兰园</t>
   </si>
   <si>
     <t>50835712</t>
   </si>
   <si>
-    <t>郑州万科城紫兰苑</t>
+    <t>郑州去敏城紫兰苑</t>
   </si>
   <si>
     <t>50835703</t>
   </si>
   <si>
-    <t>万科城秋棠苑</t>
+    <t>去敏城秋棠苑</t>
   </si>
   <si>
     <t>50905453</t>
@@ -8377,7 +8377,7 @@
     <t>Q郑州杨庄惠弘新园一号院</t>
   </si>
   <si>
-    <t>G06武汉中部管理中心</t>
+    <t>G06武汉中部去敏</t>
   </si>
   <si>
     <t>50835634</t>
@@ -8413,7 +8413,7 @@
     <t>50835637</t>
   </si>
   <si>
-    <t>武汉万科城</t>
+    <t>武汉去敏城</t>
   </si>
   <si>
     <t>50835639</t>
@@ -8431,7 +8431,7 @@
     <t>50908520</t>
   </si>
   <si>
-    <t>武汉万科金域时代</t>
+    <t>武汉去敏金域时代</t>
   </si>
   <si>
     <t>50835653</t>
@@ -8467,7 +8467,7 @@
     <t>H</t>
   </si>
   <si>
-    <t>H01阵地经营体</t>
+    <t>H01去敏</t>
   </si>
   <si>
     <t>50835723</t>
@@ -8491,7 +8491,7 @@
     <t>50906764</t>
   </si>
   <si>
-    <t>成都万科.翡翠公园</t>
+    <t>成都去敏.翡翠公园</t>
   </si>
   <si>
     <t>50835729</t>
@@ -8587,7 +8587,7 @@
     <t>50835730</t>
   </si>
   <si>
-    <t>成都万科第五城</t>
+    <t>成都去敏第五城</t>
   </si>
   <si>
     <t>50835724</t>
@@ -8608,7 +8608,7 @@
     <t>Q成都北辰香麓</t>
   </si>
   <si>
-    <t>H02阵地经营体</t>
+    <t>H02去敏</t>
   </si>
   <si>
     <t>50835743</t>
@@ -8743,49 +8743,49 @@
     <t>R成都华熙艺术村盈都（含悦都）</t>
   </si>
   <si>
-    <t>H03阵地经营体</t>
+    <t>H03去敏</t>
   </si>
   <si>
     <t>50835755</t>
   </si>
   <si>
-    <t>重庆渝园.朗润园</t>
+    <t>去敏渝园.朗润园</t>
   </si>
   <si>
     <t>50835756</t>
   </si>
   <si>
-    <t>重庆御澜道</t>
+    <t>去敏御澜道</t>
   </si>
   <si>
     <t>50835752</t>
   </si>
   <si>
-    <t>重庆金色悦城</t>
+    <t>去敏金色悦城</t>
   </si>
   <si>
     <t>50901048</t>
   </si>
   <si>
-    <t>重庆蓝澳岛</t>
+    <t>去敏蓝澳岛</t>
   </si>
   <si>
     <t>50835753</t>
   </si>
   <si>
-    <t>重庆缇香郡</t>
+    <t>去敏缇香郡</t>
   </si>
   <si>
     <t>50835749</t>
   </si>
   <si>
-    <t>CSW重庆首创光和城</t>
+    <t>CSW去敏首创光和城</t>
   </si>
   <si>
     <t>50835758</t>
   </si>
   <si>
-    <t>重庆悦湾</t>
+    <t>去敏悦湾</t>
   </si>
   <si>
     <t>50904340</t>
@@ -8797,46 +8797,46 @@
     <t>50835748</t>
   </si>
   <si>
-    <t>CSW重庆首创城</t>
+    <t>CSW去敏首创城</t>
   </si>
   <si>
     <t>50835757</t>
   </si>
   <si>
-    <t>重庆悦府.悦峰</t>
+    <t>去敏悦府.悦峰</t>
   </si>
   <si>
     <t>50906903</t>
   </si>
   <si>
-    <t>Q重庆首创嘉陵二期</t>
+    <t>Q去敏首创嘉陵二期</t>
   </si>
   <si>
     <t>50835754</t>
   </si>
   <si>
-    <t>重庆万科城</t>
+    <t>去敏去敏城</t>
   </si>
   <si>
     <t>50908643</t>
   </si>
   <si>
-    <t>重庆观承</t>
+    <t>去敏观承</t>
   </si>
   <si>
     <t>50901896</t>
   </si>
   <si>
-    <t>重庆中开·熙岸A区</t>
+    <t>去敏中开·熙岸A区</t>
   </si>
   <si>
     <t>50909428</t>
   </si>
   <si>
-    <t>重庆金域华庭</t>
-  </si>
-  <si>
-    <t>H04昆明北部管理中心</t>
+    <t>去敏金域华庭</t>
+  </si>
+  <si>
+    <t>H04昆明北部去敏</t>
   </si>
   <si>
     <t>50900256</t>
@@ -8941,7 +8941,7 @@
     <t>昆明金域缇香</t>
   </si>
   <si>
-    <t>H05阵地经营体</t>
+    <t>H05去敏</t>
   </si>
   <si>
     <t>50835777</t>
@@ -8953,7 +8953,7 @@
     <t>50835780</t>
   </si>
   <si>
-    <t>成都万科城</t>
+    <t>成都去敏城</t>
   </si>
   <si>
     <t>50835785</t>
@@ -9001,7 +9001,7 @@
     <t>50903605</t>
   </si>
   <si>
-    <t>成都万科理想城</t>
+    <t>成都去敏理想城</t>
   </si>
   <si>
     <t>50901863</t>
@@ -9058,76 +9058,76 @@
     <t>成都蓝山郡</t>
   </si>
   <si>
-    <t>H06重庆南部管理中心</t>
+    <t>H06去敏南部去敏</t>
   </si>
   <si>
     <t>50835795</t>
   </si>
   <si>
-    <t>重庆西城</t>
+    <t>去敏西城</t>
   </si>
   <si>
     <t>50835788</t>
   </si>
   <si>
-    <t>CSW重庆首创鸿恩国际</t>
+    <t>CSW去敏首创鸿恩国际</t>
   </si>
   <si>
     <t>50836619</t>
   </si>
   <si>
-    <t>Q重庆中核紫金一品</t>
+    <t>Q去敏中核紫金一品</t>
   </si>
   <si>
     <t>50835792</t>
   </si>
   <si>
-    <t>重庆锦程</t>
+    <t>去敏锦程</t>
   </si>
   <si>
     <t>50909252</t>
   </si>
   <si>
-    <t>重庆翡翠天麓</t>
+    <t>去敏翡翠天麓</t>
   </si>
   <si>
     <t>50906902</t>
   </si>
   <si>
-    <t>重庆瑞丰鹅岭山</t>
+    <t>去敏瑞丰鹅岭山</t>
   </si>
   <si>
     <t>50835790</t>
   </si>
   <si>
-    <t>重庆金域学府·翰江</t>
+    <t>去敏金域学府·翰江</t>
   </si>
   <si>
     <t>50835796</t>
   </si>
   <si>
-    <t>重庆西九</t>
+    <t>去敏西九</t>
   </si>
   <si>
     <t>50835791</t>
   </si>
   <si>
-    <t>重庆金域学府·翰林</t>
+    <t>去敏金域学府·翰林</t>
   </si>
   <si>
     <t>50835794</t>
   </si>
   <si>
-    <t>重庆万科锦尚</t>
+    <t>去敏去敏锦尚</t>
   </si>
   <si>
     <t>50909430</t>
   </si>
   <si>
-    <t>Q重庆北麓官邸</t>
-  </si>
-  <si>
-    <t>H07贵阳城区管理中心</t>
+    <t>Q去敏北麓官邸</t>
+  </si>
+  <si>
+    <t>H07贵阳城区去敏</t>
   </si>
   <si>
     <t>50835797</t>
@@ -9151,7 +9151,7 @@
     <t>50835806</t>
   </si>
   <si>
-    <t>贵阳万科云岩大都会</t>
+    <t>贵阳去敏云岩大都会</t>
   </si>
   <si>
     <t>50835803</t>
@@ -9163,7 +9163,7 @@
     <t>50835805</t>
   </si>
   <si>
-    <t>贵阳万科悦城</t>
+    <t>贵阳去敏悦城</t>
   </si>
   <si>
     <t>50835802</t>
@@ -9181,7 +9181,7 @@
     <t>50835804</t>
   </si>
   <si>
-    <t>贵阳万科城</t>
+    <t>贵阳去敏城</t>
   </si>
   <si>
     <t>50835798</t>
@@ -9190,7 +9190,7 @@
     <t>Q青山映水·上城</t>
   </si>
   <si>
-    <t>H08昆明南部管理中心</t>
+    <t>H08昆明南部去敏</t>
   </si>
   <si>
     <t>50835770</t>
@@ -9220,7 +9220,7 @@
     <t>50907974</t>
   </si>
   <si>
-    <t>昆明万科翡翠</t>
+    <t>昆明去敏翡翠</t>
   </si>
   <si>
     <t>50907227</t>
@@ -9249,8 +9249,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="[$-10804]0.00%"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="[$-10804]0.00%"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
@@ -9283,16 +9283,46 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9307,28 +9337,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9337,30 +9354,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9380,6 +9373,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -9389,8 +9389,24 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9404,25 +9420,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -9453,7 +9453,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9465,25 +9483,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9501,7 +9513,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9513,7 +9597,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9525,61 +9615,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9591,49 +9633,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9662,39 +9662,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -9710,17 +9677,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -9732,6 +9688,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9753,6 +9718,41 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -9764,142 +9764,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -9928,10 +9928,10 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -12165,7 +12165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" ht="31" spans="1:18">
+    <row r="35" ht="16" spans="1:18">
       <c r="A35" s="3" t="s">
         <v>18</v>
       </c>
@@ -12781,7 +12781,7 @@
         <v>0.0434782608695</v>
       </c>
     </row>
-    <row r="46" ht="31" spans="1:18">
+    <row r="46" ht="16" spans="1:18">
       <c r="A46" s="2" t="s">
         <v>18</v>
       </c>
@@ -13005,7 +13005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" ht="31" spans="1:18">
+    <row r="50" ht="16" spans="1:18">
       <c r="A50" s="2" t="s">
         <v>18</v>
       </c>
@@ -13509,7 +13509,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="59" ht="31" spans="1:18">
+    <row r="59" ht="16" spans="1:18">
       <c r="A59" s="3" t="s">
         <v>18</v>
       </c>
@@ -13733,7 +13733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" ht="31" spans="1:18">
+    <row r="63" ht="16" spans="1:18">
       <c r="A63" s="3" t="s">
         <v>18</v>
       </c>
@@ -18101,7 +18101,7 @@
         <v>0.1724137931034</v>
       </c>
     </row>
-    <row r="141" ht="31" spans="1:18">
+    <row r="141" ht="16" spans="1:18">
       <c r="A141" s="3" t="s">
         <v>18</v>
       </c>
@@ -18941,7 +18941,7 @@
         <v>0.074074074074</v>
       </c>
     </row>
-    <row r="156" ht="31" spans="1:18">
+    <row r="156" ht="16" spans="1:18">
       <c r="A156" s="2" t="s">
         <v>18</v>
       </c>
@@ -21909,7 +21909,7 @@
         <v>0.1666666666666</v>
       </c>
     </row>
-    <row r="209" ht="31" spans="1:18">
+    <row r="209" ht="16" spans="1:18">
       <c r="A209" s="3" t="s">
         <v>18</v>
       </c>
@@ -21965,7 +21965,7 @@
         <v>0.0901639344262</v>
       </c>
     </row>
-    <row r="210" ht="31" spans="1:18">
+    <row r="210" ht="16" spans="1:18">
       <c r="A210" s="2" t="s">
         <v>18</v>
       </c>
@@ -22469,7 +22469,7 @@
         <v>0.076923076923</v>
       </c>
     </row>
-    <row r="219" ht="31" spans="1:18">
+    <row r="219" ht="16" spans="1:18">
       <c r="A219" s="3" t="s">
         <v>18</v>
       </c>
@@ -23925,7 +23925,7 @@
         <v>0.0869565217391</v>
       </c>
     </row>
-    <row r="245" ht="31" spans="1:18">
+    <row r="245" ht="16" spans="1:18">
       <c r="A245" s="3" t="s">
         <v>469</v>
       </c>
@@ -24037,7 +24037,7 @@
         <v>0.103448275862</v>
       </c>
     </row>
-    <row r="247" ht="31" spans="1:18">
+    <row r="247" ht="16" spans="1:18">
       <c r="A247" s="3" t="s">
         <v>469</v>
       </c>
@@ -24093,7 +24093,7 @@
         <v>0.074074074074</v>
       </c>
     </row>
-    <row r="248" ht="31" spans="1:18">
+    <row r="248" ht="16" spans="1:18">
       <c r="A248" s="2" t="s">
         <v>469</v>
       </c>
@@ -24205,7 +24205,7 @@
         <v>0.0714285714285</v>
       </c>
     </row>
-    <row r="250" ht="31" spans="1:18">
+    <row r="250" ht="16" spans="1:18">
       <c r="A250" s="2" t="s">
         <v>469</v>
       </c>
@@ -24373,7 +24373,7 @@
         <v>0.0833333333333</v>
       </c>
     </row>
-    <row r="253" ht="31" spans="1:18">
+    <row r="253" ht="16" spans="1:18">
       <c r="A253" s="3" t="s">
         <v>469</v>
       </c>
@@ -24877,7 +24877,7 @@
         <v>0.1228070175438</v>
       </c>
     </row>
-    <row r="262" ht="31" spans="1:18">
+    <row r="262" ht="16" spans="1:18">
       <c r="A262" s="2" t="s">
         <v>469</v>
       </c>
@@ -24989,7 +24989,7 @@
         <v>0.1111111111111</v>
       </c>
     </row>
-    <row r="264" ht="31" spans="1:18">
+    <row r="264" ht="16" spans="1:18">
       <c r="A264" s="2" t="s">
         <v>469</v>
       </c>
@@ -25045,7 +25045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" ht="31" spans="1:18">
+    <row r="265" ht="16" spans="1:18">
       <c r="A265" s="3" t="s">
         <v>469</v>
       </c>
@@ -25269,7 +25269,7 @@
         <v>0.095238095238</v>
       </c>
     </row>
-    <row r="269" ht="31" spans="1:18">
+    <row r="269" ht="16" spans="1:18">
       <c r="A269" s="3" t="s">
         <v>469</v>
       </c>
@@ -25437,7 +25437,7 @@
         <v>0.0434782608695</v>
       </c>
     </row>
-    <row r="272" ht="31" spans="1:18">
+    <row r="272" ht="16" spans="1:18">
       <c r="A272" s="2" t="s">
         <v>469</v>
       </c>
@@ -25493,7 +25493,7 @@
         <v>0.0833333333333</v>
       </c>
     </row>
-    <row r="273" ht="31" spans="1:18">
+    <row r="273" ht="16" spans="1:18">
       <c r="A273" s="3" t="s">
         <v>469</v>
       </c>
@@ -25549,7 +25549,7 @@
         <v>0.1714285714285</v>
       </c>
     </row>
-    <row r="274" ht="31" spans="1:18">
+    <row r="274" ht="16" spans="1:18">
       <c r="A274" s="2" t="s">
         <v>469</v>
       </c>
@@ -25717,7 +25717,7 @@
         <v>0.0704225352112</v>
       </c>
     </row>
-    <row r="277" ht="31" spans="1:18">
+    <row r="277" ht="16" spans="1:18">
       <c r="A277" s="3" t="s">
         <v>469</v>
       </c>
@@ -26557,7 +26557,7 @@
         <v>0.0666666666666</v>
       </c>
     </row>
-    <row r="292" ht="31" spans="1:18">
+    <row r="292" ht="16" spans="1:18">
       <c r="A292" s="2" t="s">
         <v>469</v>
       </c>
@@ -35125,7 +35125,7 @@
         <v>0.0645161290322</v>
       </c>
     </row>
-    <row r="445" ht="31" spans="1:18">
+    <row r="445" ht="16" spans="1:18">
       <c r="A445" s="3" t="s">
         <v>918</v>
       </c>
@@ -35461,7 +35461,7 @@
         <v>0.1111111111111</v>
       </c>
     </row>
-    <row r="451" ht="31" spans="1:18">
+    <row r="451" ht="16" spans="1:18">
       <c r="A451" s="3" t="s">
         <v>918</v>
       </c>
@@ -35741,7 +35741,7 @@
         <v>0.1666666666666</v>
       </c>
     </row>
-    <row r="456" ht="31" spans="1:18">
+    <row r="456" ht="16" spans="1:18">
       <c r="A456" s="2" t="s">
         <v>918</v>
       </c>
@@ -35797,7 +35797,7 @@
         <v>0.1428571428571</v>
       </c>
     </row>
-    <row r="457" ht="31" spans="1:18">
+    <row r="457" ht="16" spans="1:18">
       <c r="A457" s="3" t="s">
         <v>918</v>
       </c>
@@ -36133,7 +36133,7 @@
         <v>0.1818181818181</v>
       </c>
     </row>
-    <row r="463" ht="31" spans="1:18">
+    <row r="463" ht="16" spans="1:18">
       <c r="A463" s="3" t="s">
         <v>918</v>
       </c>
@@ -36413,7 +36413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" ht="31" spans="1:18">
+    <row r="468" ht="16" spans="1:18">
       <c r="A468" s="2" t="s">
         <v>918</v>
       </c>
@@ -36581,7 +36581,7 @@
         <v>0.1333333333333</v>
       </c>
     </row>
-    <row r="471" ht="31" spans="1:18">
+    <row r="471" ht="16" spans="1:18">
       <c r="A471" s="3" t="s">
         <v>918</v>
       </c>
@@ -36637,7 +36637,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="472" ht="31" spans="1:18">
+    <row r="472" ht="16" spans="1:18">
       <c r="A472" s="2" t="s">
         <v>918</v>
       </c>
@@ -37869,7 +37869,7 @@
         <v>0.0588235294117</v>
       </c>
     </row>
-    <row r="494" ht="31" spans="1:18">
+    <row r="494" ht="16" spans="1:18">
       <c r="A494" s="2" t="s">
         <v>918</v>
       </c>
@@ -37981,7 +37981,7 @@
         <v>0.081081081081</v>
       </c>
     </row>
-    <row r="496" ht="31" spans="1:18">
+    <row r="496" ht="16" spans="1:18">
       <c r="A496" s="2" t="s">
         <v>918</v>
       </c>
@@ -38093,7 +38093,7 @@
         <v>0.0930232558139</v>
       </c>
     </row>
-    <row r="498" ht="31" spans="1:18">
+    <row r="498" ht="16" spans="1:18">
       <c r="A498" s="2" t="s">
         <v>918</v>
       </c>
@@ -38149,7 +38149,7 @@
         <v>0.0073529411764</v>
       </c>
     </row>
-    <row r="499" ht="31" spans="1:18">
+    <row r="499" ht="16" spans="1:18">
       <c r="A499" s="3" t="s">
         <v>918</v>
       </c>
@@ -38205,7 +38205,7 @@
         <v>0.038961038961</v>
       </c>
     </row>
-    <row r="500" ht="31" spans="1:18">
+    <row r="500" ht="16" spans="1:18">
       <c r="A500" s="2" t="s">
         <v>918</v>
       </c>
@@ -39437,7 +39437,7 @@
         <v>0.0555555555555</v>
       </c>
     </row>
-    <row r="522" ht="31" spans="1:18">
+    <row r="522" ht="16" spans="1:18">
       <c r="A522" s="2" t="s">
         <v>918</v>
       </c>
@@ -39493,7 +39493,7 @@
         <v>0.0392156862745</v>
       </c>
     </row>
-    <row r="523" ht="31" spans="1:18">
+    <row r="523" ht="16" spans="1:18">
       <c r="A523" s="3" t="s">
         <v>918</v>
       </c>
@@ -39549,7 +39549,7 @@
         <v>0.0384615384615</v>
       </c>
     </row>
-    <row r="524" ht="31" spans="1:18">
+    <row r="524" ht="16" spans="1:18">
       <c r="A524" s="2" t="s">
         <v>918</v>
       </c>
@@ -39941,7 +39941,7 @@
         <v>0.0416666666666</v>
       </c>
     </row>
-    <row r="531" ht="31" spans="1:18">
+    <row r="531" ht="16" spans="1:18">
       <c r="A531" s="3" t="s">
         <v>918</v>
       </c>
@@ -40165,7 +40165,7 @@
         <v>0.1111111111111</v>
       </c>
     </row>
-    <row r="535" ht="31" spans="1:18">
+    <row r="535" ht="16" spans="1:18">
       <c r="A535" s="3" t="s">
         <v>918</v>
       </c>
@@ -40445,7 +40445,7 @@
         <v>0.2272727272727</v>
       </c>
     </row>
-    <row r="540" ht="31" spans="1:18">
+    <row r="540" ht="16" spans="1:18">
       <c r="A540" s="2" t="s">
         <v>918</v>
       </c>
@@ -40781,7 +40781,7 @@
         <v>0.1111111111111</v>
       </c>
     </row>
-    <row r="546" ht="31" spans="1:18">
+    <row r="546" ht="16" spans="1:18">
       <c r="A546" s="2" t="s">
         <v>918</v>
       </c>
@@ -40893,7 +40893,7 @@
         <v>0.2105263157894</v>
       </c>
     </row>
-    <row r="548" ht="31" spans="1:18">
+    <row r="548" ht="16" spans="1:18">
       <c r="A548" s="2" t="s">
         <v>918</v>
       </c>
@@ -41117,7 +41117,7 @@
         <v>0.0588235294117</v>
       </c>
     </row>
-    <row r="552" ht="31" spans="1:18">
+    <row r="552" ht="16" spans="1:18">
       <c r="A552" s="2" t="s">
         <v>918</v>
       </c>
@@ -41173,7 +41173,7 @@
         <v>0.032967032967</v>
       </c>
     </row>
-    <row r="553" ht="31" spans="1:18">
+    <row r="553" ht="16" spans="1:18">
       <c r="A553" s="3" t="s">
         <v>918</v>
       </c>
@@ -41397,7 +41397,7 @@
         <v>0.03125</v>
       </c>
     </row>
-    <row r="557" ht="31" spans="1:18">
+    <row r="557" ht="16" spans="1:18">
       <c r="A557" s="3" t="s">
         <v>918</v>
       </c>
@@ -41845,7 +41845,7 @@
         <v>0.0076923076923</v>
       </c>
     </row>
-    <row r="565" ht="31" spans="1:18">
+    <row r="565" ht="16" spans="1:18">
       <c r="A565" s="3" t="s">
         <v>918</v>
       </c>
@@ -42013,7 +42013,7 @@
         <v>0.1176470588235</v>
       </c>
     </row>
-    <row r="568" ht="31" spans="1:18">
+    <row r="568" ht="16" spans="1:18">
       <c r="A568" s="2" t="s">
         <v>918</v>
       </c>
@@ -44253,7 +44253,7 @@
         <v>0.047619047619</v>
       </c>
     </row>
-    <row r="608" ht="31" spans="1:18">
+    <row r="608" ht="16" spans="1:18">
       <c r="A608" s="2" t="s">
         <v>1222</v>
       </c>
@@ -44309,7 +44309,7 @@
         <v>0.0232558139534</v>
       </c>
     </row>
-    <row r="609" ht="31" spans="1:18">
+    <row r="609" ht="16" spans="1:18">
       <c r="A609" s="3" t="s">
         <v>1222</v>
       </c>
@@ -44589,7 +44589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" ht="31" spans="1:18">
+    <row r="614" ht="16" spans="1:18">
       <c r="A614" s="2" t="s">
         <v>1222</v>
       </c>
@@ -48117,7 +48117,7 @@
         <v>0.1428571428571</v>
       </c>
     </row>
-    <row r="677" ht="31" spans="1:18">
+    <row r="677" ht="16" spans="1:18">
       <c r="A677" s="3" t="s">
         <v>1222</v>
       </c>
@@ -48173,7 +48173,7 @@
         <v>0.0714285714285</v>
       </c>
     </row>
-    <row r="678" ht="31" spans="1:18">
+    <row r="678" ht="16" spans="1:18">
       <c r="A678" s="2" t="s">
         <v>1222</v>
       </c>
@@ -48229,7 +48229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" ht="31" spans="1:18">
+    <row r="679" ht="16" spans="1:18">
       <c r="A679" s="3" t="s">
         <v>1222</v>
       </c>
@@ -48285,7 +48285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" ht="31" spans="1:18">
+    <row r="680" ht="16" spans="1:18">
       <c r="A680" s="2" t="s">
         <v>1222</v>
       </c>
@@ -48453,7 +48453,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="683" ht="31" spans="1:18">
+    <row r="683" ht="16" spans="1:18">
       <c r="A683" s="3" t="s">
         <v>1222</v>
       </c>
@@ -48565,7 +48565,7 @@
         <v>0.1538461538461</v>
       </c>
     </row>
-    <row r="685" ht="31" spans="1:18">
+    <row r="685" ht="16" spans="1:18">
       <c r="A685" s="3" t="s">
         <v>1222</v>
       </c>
@@ -48621,7 +48621,7 @@
         <v>0.1428571428571</v>
       </c>
     </row>
-    <row r="686" ht="31" spans="1:18">
+    <row r="686" ht="16" spans="1:18">
       <c r="A686" s="2" t="s">
         <v>1222</v>
       </c>
@@ -48789,7 +48789,7 @@
         <v>0.1351351351351</v>
       </c>
     </row>
-    <row r="689" ht="31" spans="1:18">
+    <row r="689" ht="16" spans="1:18">
       <c r="A689" s="3" t="s">
         <v>1222</v>
       </c>
@@ -49125,7 +49125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" ht="31" spans="1:18">
+    <row r="695" ht="16" spans="1:18">
       <c r="A695" s="3" t="s">
         <v>1222</v>
       </c>
@@ -51421,7 +51421,7 @@
         <v>0.21875</v>
       </c>
     </row>
-    <row r="736" ht="31" spans="1:18">
+    <row r="736" ht="16" spans="1:18">
       <c r="A736" s="2" t="s">
         <v>1222</v>
       </c>
@@ -51589,7 +51589,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="739" ht="31" spans="1:18">
+    <row r="739" ht="16" spans="1:18">
       <c r="A739" s="3" t="s">
         <v>1222</v>
       </c>
@@ -51757,7 +51757,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="742" ht="31" spans="1:18">
+    <row r="742" ht="16" spans="1:18">
       <c r="A742" s="2" t="s">
         <v>1222</v>
       </c>
@@ -52653,7 +52653,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="758" ht="31" spans="1:18">
+    <row r="758" ht="16" spans="1:18">
       <c r="A758" s="2" t="s">
         <v>1222</v>
       </c>
@@ -52765,7 +52765,7 @@
         <v>0.0833333333333</v>
       </c>
     </row>
-    <row r="760" ht="31" spans="1:18">
+    <row r="760" ht="16" spans="1:18">
       <c r="A760" s="2" t="s">
         <v>1222</v>
       </c>
@@ -53437,7 +53437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="772" ht="31" spans="1:18">
+    <row r="772" ht="16" spans="1:18">
       <c r="A772" s="2" t="s">
         <v>1222</v>
       </c>
@@ -53493,7 +53493,7 @@
         <v>0.0833333333333</v>
       </c>
     </row>
-    <row r="773" ht="31" spans="1:18">
+    <row r="773" ht="16" spans="1:18">
       <c r="A773" s="3" t="s">
         <v>1222</v>
       </c>
@@ -54445,7 +54445,7 @@
         <v>0.0714285714285</v>
       </c>
     </row>
-    <row r="790" ht="31" spans="1:18">
+    <row r="790" ht="16" spans="1:18">
       <c r="A790" s="2" t="s">
         <v>1222</v>
       </c>
@@ -54501,7 +54501,7 @@
         <v>0.0689655172413</v>
       </c>
     </row>
-    <row r="791" ht="31" spans="1:18">
+    <row r="791" ht="16" spans="1:18">
       <c r="A791" s="3" t="s">
         <v>1222</v>
       </c>
@@ -54893,7 +54893,7 @@
         <v>0.0645161290322</v>
       </c>
     </row>
-    <row r="798" ht="31" spans="1:18">
+    <row r="798" ht="16" spans="1:18">
       <c r="A798" s="2" t="s">
         <v>1222</v>
       </c>
@@ -59429,7 +59429,7 @@
         <v>0.0666666666666</v>
       </c>
     </row>
-    <row r="879" ht="31" spans="1:18">
+    <row r="879" ht="16" spans="1:18">
       <c r="A879" s="3" t="s">
         <v>1712</v>
       </c>
@@ -59821,7 +59821,7 @@
         <v>0.1025641025641</v>
       </c>
     </row>
-    <row r="886" ht="31" spans="1:18">
+    <row r="886" ht="16" spans="1:18">
       <c r="A886" s="2" t="s">
         <v>1712</v>
       </c>
@@ -60941,7 +60941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="906" ht="31" spans="1:18">
+    <row r="906" ht="16" spans="1:18">
       <c r="A906" s="2" t="s">
         <v>1712</v>
       </c>
@@ -61221,7 +61221,7 @@
         <v>0.0333333333333</v>
       </c>
     </row>
-    <row r="911" ht="31" spans="1:18">
+    <row r="911" ht="16" spans="1:18">
       <c r="A911" s="3" t="s">
         <v>1712</v>
       </c>
@@ -61333,7 +61333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="913" ht="31" spans="1:18">
+    <row r="913" ht="16" spans="1:18">
       <c r="A913" s="3" t="s">
         <v>1712</v>
       </c>
@@ -61501,7 +61501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="916" ht="31" spans="1:18">
+    <row r="916" ht="16" spans="1:18">
       <c r="A916" s="2" t="s">
         <v>1712</v>
       </c>
@@ -62789,7 +62789,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="939" ht="31" spans="1:18">
+    <row r="939" ht="16" spans="1:18">
       <c r="A939" s="3" t="s">
         <v>1712</v>
       </c>
@@ -63181,7 +63181,7 @@
         <v>0.3333333333333</v>
       </c>
     </row>
-    <row r="946" ht="31" spans="1:18">
+    <row r="946" ht="16" spans="1:18">
       <c r="A946" s="2" t="s">
         <v>1712</v>
       </c>
@@ -63573,7 +63573,7 @@
         <v>0.1818181818181</v>
       </c>
     </row>
-    <row r="953" ht="31" spans="1:18">
+    <row r="953" ht="16" spans="1:18">
       <c r="A953" s="3" t="s">
         <v>1712</v>
       </c>
@@ -71917,7 +71917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1102" ht="31" spans="1:18">
+    <row r="1102" ht="16" spans="1:18">
       <c r="A1102" s="2" t="s">
         <v>1712</v>
       </c>
@@ -71973,7 +71973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1103" ht="31" spans="1:18">
+    <row r="1103" ht="16" spans="1:18">
       <c r="A1103" s="3" t="s">
         <v>1712</v>
       </c>
@@ -72253,7 +72253,7 @@
         <v>0.2258064516129</v>
       </c>
     </row>
-    <row r="1108" ht="31" spans="1:18">
+    <row r="1108" ht="16" spans="1:18">
       <c r="A1108" s="2" t="s">
         <v>1712</v>
       </c>
@@ -72757,7 +72757,7 @@
         <v>0.0454545454545</v>
       </c>
     </row>
-    <row r="1117" ht="31" spans="1:18">
+    <row r="1117" ht="16" spans="1:18">
       <c r="A1117" s="3" t="s">
         <v>2294</v>
       </c>
@@ -73541,7 +73541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1131" ht="31" spans="1:18">
+    <row r="1131" ht="16" spans="1:18">
       <c r="A1131" s="3" t="s">
         <v>2294</v>
       </c>
@@ -74213,7 +74213,7 @@
         <v>0.0526315789473</v>
       </c>
     </row>
-    <row r="1143" ht="31" spans="1:18">
+    <row r="1143" ht="16" spans="1:18">
       <c r="A1143" s="3" t="s">
         <v>2294</v>
       </c>
@@ -77853,7 +77853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1208" ht="31" spans="1:18">
+    <row r="1208" ht="16" spans="1:18">
       <c r="A1208" s="2" t="s">
         <v>2294</v>
       </c>
@@ -82501,7 +82501,7 @@
         <v>0.0714285714285</v>
       </c>
     </row>
-    <row r="1291" ht="31" spans="1:18">
+    <row r="1291" ht="16" spans="1:18">
       <c r="A1291" s="3" t="s">
         <v>2628</v>
       </c>
@@ -82725,7 +82725,7 @@
         <v>0.0919540229885</v>
       </c>
     </row>
-    <row r="1295" ht="31" spans="1:18">
+    <row r="1295" ht="16" spans="1:18">
       <c r="A1295" s="3" t="s">
         <v>2628</v>
       </c>
@@ -83005,7 +83005,7 @@
         <v>0.090909090909</v>
       </c>
     </row>
-    <row r="1300" ht="31" spans="1:18">
+    <row r="1300" ht="16" spans="1:18">
       <c r="A1300" s="2" t="s">
         <v>2628</v>
       </c>
@@ -83789,7 +83789,7 @@
         <v>0.09375</v>
       </c>
     </row>
-    <row r="1314" ht="31" spans="1:18">
+    <row r="1314" ht="16" spans="1:18">
       <c r="A1314" s="2" t="s">
         <v>2628</v>
       </c>
@@ -83957,7 +83957,7 @@
         <v>0.0212765957446</v>
       </c>
     </row>
-    <row r="1317" ht="31" spans="1:18">
+    <row r="1317" ht="16" spans="1:18">
       <c r="A1317" s="3" t="s">
         <v>2628</v>
       </c>
@@ -84237,7 +84237,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="1322" ht="31" spans="1:18">
+    <row r="1322" ht="16" spans="1:18">
       <c r="A1322" s="2" t="s">
         <v>2628</v>
       </c>
@@ -84293,7 +84293,7 @@
         <v>0.060606060606</v>
       </c>
     </row>
-    <row r="1323" ht="31" spans="1:18">
+    <row r="1323" ht="16" spans="1:18">
       <c r="A1323" s="3" t="s">
         <v>2628</v>
       </c>
@@ -84405,7 +84405,7 @@
         <v>0.1162790697674</v>
       </c>
     </row>
-    <row r="1325" ht="31" spans="1:18">
+    <row r="1325" ht="16" spans="1:18">
       <c r="A1325" s="3" t="s">
         <v>2628</v>
       </c>
@@ -86645,7 +86645,7 @@
         <v>0.076923076923</v>
       </c>
     </row>
-    <row r="1365" ht="31" spans="1:18">
+    <row r="1365" ht="16" spans="1:18">
       <c r="A1365" s="3" t="s">
         <v>2815</v>
       </c>
@@ -86869,7 +86869,7 @@
         <v>0.0975609756097</v>
       </c>
     </row>
-    <row r="1369" ht="31" spans="1:18">
+    <row r="1369" ht="16" spans="1:18">
       <c r="A1369" s="3" t="s">
         <v>2815</v>
       </c>
@@ -89221,7 +89221,7 @@
         <v>0.1428571428571</v>
       </c>
     </row>
-    <row r="1411" ht="31" spans="1:18">
+    <row r="1411" ht="16" spans="1:18">
       <c r="A1411" s="3" t="s">
         <v>2815</v>
       </c>
@@ -89333,7 +89333,7 @@
         <v>0.0551724137931</v>
       </c>
     </row>
-    <row r="1413" ht="31" spans="1:18">
+    <row r="1413" ht="16" spans="1:18">
       <c r="A1413" s="3" t="s">
         <v>2815</v>
       </c>
@@ -89389,7 +89389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1414" ht="31" spans="1:18">
+    <row r="1414" ht="16" spans="1:18">
       <c r="A1414" s="2" t="s">
         <v>2815</v>
       </c>
@@ -89501,7 +89501,7 @@
         <v>0.0705882352941</v>
       </c>
     </row>
-    <row r="1416" ht="31" spans="1:18">
+    <row r="1416" ht="16" spans="1:18">
       <c r="A1416" s="2" t="s">
         <v>2815</v>
       </c>
@@ -89781,7 +89781,7 @@
         <v>0.1304347826086</v>
       </c>
     </row>
-    <row r="1421" ht="31" spans="1:18">
+    <row r="1421" ht="16" spans="1:18">
       <c r="A1421" s="3" t="s">
         <v>2815</v>
       </c>
@@ -89837,7 +89837,7 @@
         <v>0.1370967741935</v>
       </c>
     </row>
-    <row r="1422" ht="31" spans="1:18">
+    <row r="1422" ht="16" spans="1:18">
       <c r="A1422" s="2" t="s">
         <v>2815</v>
       </c>
@@ -91013,7 +91013,7 @@
         <v>0.1428571428571</v>
       </c>
     </row>
-    <row r="1443" ht="31" spans="1:18">
+    <row r="1443" ht="16" spans="1:18">
       <c r="A1443" s="3" t="s">
         <v>2815</v>
       </c>
@@ -91237,7 +91237,7 @@
         <v>0.1538461538461</v>
       </c>
     </row>
-    <row r="1447" ht="31" spans="1:18">
+    <row r="1447" ht="16" spans="1:18">
       <c r="A1447" s="3" t="s">
         <v>2815</v>
       </c>
@@ -91797,7 +91797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1457" ht="31" spans="1:18">
+    <row r="1457" ht="16" spans="1:18">
       <c r="A1457" s="3" t="s">
         <v>2815</v>
       </c>
@@ -91853,7 +91853,7 @@
         <v>0.074074074074</v>
       </c>
     </row>
-    <row r="1458" ht="31" spans="1:18">
+    <row r="1458" ht="16" spans="1:18">
       <c r="A1458" s="2" t="s">
         <v>2815</v>
       </c>
@@ -91909,7 +91909,7 @@
         <v>0.0857142857142</v>
       </c>
     </row>
-    <row r="1459" ht="31" spans="1:18">
+    <row r="1459" ht="16" spans="1:18">
       <c r="A1459" s="3" t="s">
         <v>2815</v>
       </c>
@@ -91965,7 +91965,7 @@
         <v>0.0655737704918</v>
       </c>
     </row>
-    <row r="1460" ht="31" spans="1:18">
+    <row r="1460" ht="16" spans="1:18">
       <c r="A1460" s="2" t="s">
         <v>2815</v>
       </c>
